--- a/Experiments/Inner Product/Inner Product Nodes/combined 2.xlsx
+++ b/Experiments/Inner Product/Inner Product Nodes/combined 2.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\Inner Product Nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuval\Desktop\Distributed Monitoring Thesis\Experiments\Inner Product\Inner Product Nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E31B1AEC-4233-486C-B841-9FF6A6DB1411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37369C2C-BCC9-4325-9004-AB7CAB2351BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="combined" sheetId="1" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -405,7 +410,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1360,6 +1365,40 @@
           <c:yVal>
             <c:numRef>
               <c:f>Sheet2!$D$24:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>53.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-35.404468989871624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-13.259356707948022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.1665663030235134</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5405403781422959</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1611610163059369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.917892039961165</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.979111851779237</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -2151,10 +2190,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:legendEntry>
-        <c:idx val="6"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
         <c:idx val="7"/>
         <c:delete val="1"/>
       </c:legendEntry>
@@ -2163,11 +2198,15 @@
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="9"/>
+        <c:idx val="11"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:legendEntry>
-        <c:idx val="10"/>
+        <c:idx val="12"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="13"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -2841,253 +2880,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-      <sheetName val="combined"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>Dist L2</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>FGM</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>Oracle</v>
-          </cell>
-          <cell r="F15" t="str">
-            <v>Oracle Vector</v>
-          </cell>
-          <cell r="G15" t="str">
-            <v>Value</v>
-          </cell>
-          <cell r="H15" t="str">
-            <v>Vector</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>968</v>
-          </cell>
-          <cell r="B16">
-            <v>1.5817837465564739</v>
-          </cell>
-          <cell r="C16">
-            <v>4.2391629134053375</v>
-          </cell>
-          <cell r="E16">
-            <v>1</v>
-          </cell>
-          <cell r="F16">
-            <v>3.4021164021164023</v>
-          </cell>
-          <cell r="G16">
-            <v>4.1617755841240687</v>
-          </cell>
-          <cell r="H16">
-            <v>9.1798941798941804</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>5000</v>
-          </cell>
-          <cell r="B17">
-            <v>0.890441975308642</v>
-          </cell>
-          <cell r="C17">
-            <v>3.6806467764060358</v>
-          </cell>
-          <cell r="E17">
-            <v>1</v>
-          </cell>
-          <cell r="F17">
-            <v>2.786008230452675</v>
-          </cell>
-          <cell r="G17">
-            <v>3.669448148148148</v>
-          </cell>
-          <cell r="H17">
-            <v>7.9602194787379972</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>9800</v>
-          </cell>
-          <cell r="B18">
-            <v>1.4297779217507109</v>
-          </cell>
-          <cell r="C18">
-            <v>5.1500231256523774</v>
-          </cell>
-          <cell r="E18">
-            <v>1</v>
-          </cell>
-          <cell r="F18">
-            <v>4.6631393298059969</v>
-          </cell>
-          <cell r="G18">
-            <v>5.1447034157578377</v>
-          </cell>
-          <cell r="H18">
-            <v>9.9559082892416217</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>14792</v>
-          </cell>
-          <cell r="B19">
-            <v>1.5722459611611406</v>
-          </cell>
-          <cell r="C19">
-            <v>4.8627922715267227</v>
-          </cell>
-          <cell r="E19">
-            <v>1</v>
-          </cell>
-          <cell r="F19">
-            <v>4.4673721340388006</v>
-          </cell>
-          <cell r="G19">
-            <v>4.8583758273455411</v>
-          </cell>
-          <cell r="H19">
-            <v>10.029982363315696</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>20000</v>
-          </cell>
-          <cell r="B20">
-            <v>1.8578003968253969</v>
-          </cell>
-          <cell r="C20">
-            <v>5.575484700176367</v>
-          </cell>
-          <cell r="E20">
-            <v>1</v>
-          </cell>
-          <cell r="F20">
-            <v>4.5255731922398592</v>
-          </cell>
-          <cell r="G20">
-            <v>5.5724435185185186</v>
-          </cell>
-          <cell r="H20">
-            <v>10.051146384479718</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>24642</v>
-          </cell>
-          <cell r="B21">
-            <v>1.7148588600040051</v>
-          </cell>
-          <cell r="C21">
-            <v>5.4323160569406816</v>
-          </cell>
-          <cell r="E21">
-            <v>1</v>
-          </cell>
-          <cell r="F21">
-            <v>4.4303350970017634</v>
-          </cell>
-          <cell r="G21">
-            <v>5.4293509153369017</v>
-          </cell>
-          <cell r="H21">
-            <v>10.209876543209877</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>29768</v>
-          </cell>
-          <cell r="B22">
-            <v>1.7147394880195204</v>
-          </cell>
-          <cell r="C22">
-            <v>5.5745222193309623</v>
-          </cell>
-          <cell r="E22">
-            <v>1</v>
-          </cell>
-          <cell r="F22">
-            <v>4.3086419753086416</v>
-          </cell>
-          <cell r="G22">
-            <v>5.5721212591957467</v>
-          </cell>
-          <cell r="H22">
-            <v>9.5802469135802468</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>34848</v>
-          </cell>
-          <cell r="B23">
-            <v>2.143266352599265</v>
-          </cell>
-          <cell r="C23">
-            <v>5.716842876617708</v>
-          </cell>
-          <cell r="E23">
-            <v>1</v>
-          </cell>
-          <cell r="F23">
-            <v>4.3985890652557318</v>
-          </cell>
-          <cell r="G23">
-            <v>5.714868289678896</v>
-          </cell>
-          <cell r="H23">
-            <v>10.320987654320987</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>39762</v>
-          </cell>
-          <cell r="B24">
-            <v>2.0003628290267126</v>
-          </cell>
-          <cell r="C24">
-            <v>5.7165668132797549</v>
-          </cell>
-          <cell r="E24">
-            <v>1</v>
-          </cell>
-          <cell r="F24">
-            <v>4.4144620811287476</v>
-          </cell>
-          <cell r="G24">
-            <v>5.7147926547436967</v>
-          </cell>
-          <cell r="H24">
-            <v>9.9788359788359795</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Yuval" refreshedDate="43827.814121527779" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="112">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yuval" refreshedDate="43827.814121527779" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="112" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K113" sheet="combined"/>
   </cacheSource>
@@ -4621,7 +4415,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:I21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -5063,7 +4857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5618,16 +5412,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -6633,7 +6427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:OV113"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
